--- a/Data/Textbausteine_LENA_November2021.xlsx
+++ b/Data/Textbausteine_LENA_November2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="477">
   <si>
     <t>Text_ID</t>
   </si>
@@ -446,252 +446,390 @@
     <t>Die Gemeinde #Gemeinde_d hat die Justizinitiative mit #JaStimmenInProzent Prozent Ja-Stimmen angenommen.</t>
   </si>
   <si>
+    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui l'initiative sur la justice.</t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i l'Iniziativa sulla giustizia è stata accettata con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Ja zur Justizinitiative in #Gemeinde_d: Mit #JaStimmenInProzent Prozent haben die Stimmbürgerinnen und Stimmbürger das Volksbegehren angenommen.</t>
   </si>
   <si>
+    <t>Les citoyens de #Gemeinde_f approuvent avec #JaStimmenInProzent pour cent de oui l'initiative "Désignation des juges fédéraux par tirage au sort".</t>
+  </si>
+  <si>
     <t>Sì all'Iniziativa sulla giustizia nel comune di #Gemeinde_i: i cittadini hanno approvato il testo con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat die Initiative "Für eine Schweiz ohne synthetische Pestizide" mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
+    <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pour cent à l'initiative sur la justice.</t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i l'Iniziativa popolare “Per la designazione dei giudici federali mediante sorteggio” è stata approvata con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung der Justizinitiative zugestimmt. Sie wurde mit einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent angenommen. </t>
   </si>
   <si>
+    <t>C'est oui à #JaStimmenInProzent pour cent à l'initiative "Désignation des juges fédéraux par tirage au sort" à #Gemeinde_f</t>
+  </si>
+  <si>
     <t>I cittadini di #Gemeinde_i si sono espressi a favore dell'Iniziativa “Per la designazione dei giudici federali mediante sorteggio”. Il testo è stato approvato con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t xml:space="preserve">#JaStimmenInProzent Prozent der Abstimmenden in der Gemeinde #Gemeinde_d haben Ja gesagt zur Justizinitiative. </t>
   </si>
   <si>
+    <t>A #Gemeinde_f, les habitants sont favorables à l'initiative sur la justice. Ils ont validé le texte avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
     <t>Con il #JaStimmenInProzent percento di "sì", i cittadini del comune di #Gemeinde_i hanno accolto l'Iniziativa sulla giustizia.</t>
   </si>
   <si>
     <t>Ja zur Justizinitiative in #Gemeinde_d. Die Gemeinde hat das Volksbegehren mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
   </si>
   <si>
+    <t>Les citoyens de #Gemeinde_f valident avec #JaStimmenInProzent pour cent de oui l'initiative sur la justice.</t>
+  </si>
+  <si>
     <t>Da #Gemeinde_i è arrivato un "sì" alle urne per l'Iniziativa sulla giustizia. I cittadini hanno accolto il testo con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t xml:space="preserve">#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben die Justizinitiative angenommen. </t>
   </si>
   <si>
+    <t>L'initiative sur la justice passe la rampe à #Gemeinde_f, avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
     <t>A #Gemeinde_i i cittadini hanno accolto, con il #JaStimmenInProzent percento dei voti, l'Iniziativa sulla giustizia.</t>
   </si>
   <si>
     <t>Die Stimmbevölkerung von #Gemeinde_d hat sich mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut für die Justizinitiative ausgesprochen.</t>
   </si>
   <si>
+    <t>L'initiative "Désignation des juges fédéraux par tirage au sort" est validée à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à approuver le texte, contre #NeinStimmenAbsolut à le refuser.</t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i l'iniziativa sulla giustizia è stata accettata con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut.</t>
   </si>
   <si>
     <t>Mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen hat #Gemeinde_d die Justizinitiative angenommen.</t>
   </si>
   <si>
+    <t>Les électeurs de la petite commune de #Gemeinde_f ont accordé leur confiance à l'initiative sur la justice. Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
+  </si>
+  <si>
     <t>Con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut, i cittadini di #Gemeinde_i hanno approvato l'iniziativa popolare “Per la designazione dei giudici federali mediante sorteggio”.</t>
   </si>
   <si>
     <t>In #Gemeinde_d hat die Justizinitiative keine Mehrheit gefunden. Auf #NeinStimmenInProzent Prozent der abgegebenen Stimmzettel stand ein Nein.</t>
   </si>
   <si>
+    <t>L'initative sur la justice n'a pas trouvé de majorité à #Gemeinde_f. Le texte a été rejeté avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i l'Iniziativa sulla giustizia è stata bocciata con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d sagen Nein zur Justizinitiative.</t>
   </si>
   <si>
+    <t>Les habitants de #Gemeinde_f s'opposent à l'initiative "Désignation des juges fédéraux par tirage au sort" avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
     <t>No all'Iniziativa sulla giustizia nel comune di #Gemeinde_i: i cittadini hanno bocciato il testo con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t xml:space="preserve">Nein zur Justizinitiative in #Gemeinde_d. Die Gemeinde hat das Volksbegehren mit #NeinStimmenInProzent Prozent abgelehnt. </t>
   </si>
   <si>
+    <t>A #Gemeinde_f, les citoyens rejettent l'initiative sur la justice, avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i l'Iniziativa popolare “Per la designazione dei giudici federali mediante sorteggio” è stata respinta con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung die Justizinitiative abgelehnt. Das Volksbegehren wurde mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent verworfen. </t>
   </si>
   <si>
+    <t>Les habitants de #Gemeinde_f rejettent à #NeinStimmenInProzent pour cent des voix l'initiative sur la justice.</t>
+  </si>
+  <si>
     <t>I cittadini di #Gemeinde_i si sono opposti all'iniziativa sulla giustizia. Il testo è stato respinto con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Keine Mehrheit für die Justizinitiative in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein-Stimmen zu #JaStimmenAbsolut Ja-Stimmen oder #NeinStimmenInProzent Prozent hat die Gemeinde das Volksbegehren verworfen.</t>
   </si>
   <si>
+    <t>L'initiative "Désignation des juges fédéraux par tirage au sort" n'a pas convaincu à #Gemeinde_f. Les citoyens de la commune ont refusé le texte avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
     <t>Con il #NeinStimmenInProzent percento di "no", i cittadini del comune di #Gemeinde_i hanno bocciato l'Iniziativa sulla giustizia</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Justizinitiative mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
+    <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pour cent à l'initiative sur la justice.</t>
+  </si>
+  <si>
     <t>Da #Gemeinde_i è arrivato un "no" alle urne per l'Iniziativa sulla giustizia. I cittadini hanno respinto il testo con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Nein zur Justizinitiative in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmbürgerinnen und Stimmbürger das Volksbegehren abgelehnt. Das sind #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
+    <t>C'est non à l'initiative sur la justice à #Gemeinde_f. Les habitants ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>A #Gemeinde_i i cittadini hanno respinto, con il #NeinStimmenInProzent percento dei voti, l'Iniziativa popolare “Per la designazione dei giudici federali mediante sorteggio”</t>
   </si>
   <si>
     <t>Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen hat die Gemeinde #Gemeinde_d die Justizinitiative verworfen.</t>
   </si>
   <si>
+    <t>Les électeurs de la petite commune de #Gemeinde_f ont refusé l'initiative sur la justice.Ils ont dit non à cet objet par #NeinStimmenAbsolut voix contre #JaStimmenAbsolut.</t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i l'iniziativa sulla giustizia è stata bocciata con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut.</t>
   </si>
   <si>
     <t>Nein zur Justizinitiative in #Gemeinde_d. Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten die Volksinitiative verworfen.</t>
   </si>
   <si>
+    <t>L'initative "Désignation des juges fédéraux par tirage au sort" ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejetée par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
+  </si>
+  <si>
     <t>Con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut, i cittadini di #Gemeinde_i hanno respinto l'iniziativa popolare “Per la designazione dei giudici federali mediante sorteggio”.</t>
   </si>
   <si>
     <t>Unentschieden in #Gemeinde_d: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner der Justizinitiative genau die Waage.</t>
   </si>
   <si>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter l'initiative sur la justice et #NeinStimmenAbsolut à la refuser.</t>
+  </si>
+  <si>
     <t>Pareggio perfetto a #Gemeinde_i! Sono stati #JaStimmenAbsolut a votare a favore dell'iniziativa sulla giustizia, lo stesso identico numero dei contrari.</t>
   </si>
   <si>
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden der Justizinitiative zugestimmt.</t>
   </si>
   <si>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté l'initiative sur la justice.</t>
+  </si>
+  <si>
     <t>Un risultato più chiaro è difficile da trovare: a #Gemeinde_i tutti e #JaStimmenAbsolut i votanti hanno accettato l'iniziativa sulla giustizia.</t>
   </si>
   <si>
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die Justizinitiative abgelehnt.</t>
   </si>
   <si>
+    <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous l'initiative sur la justice.</t>
+  </si>
+  <si>
     <t>Una bocciatura più chiara è difficile da trovare: a #Gemeinde_i tutti e #NeinStimmenAbsolut i votanti hanno respinto l'iniziativa sulla giustizia.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat am Abstimmungssonntag für einen Rekord gesorgt: Sie hat die Justizinitiative mit dem höchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent befürworteten die Vorlage.</t>
   </si>
   <si>
+    <t xml:space="preserve">#Gemeinde_f est la commune de Suisse à avoir le plus fortement approuvé l'initiative "Désignation des juges fédéraux par tirage au sort". Ses citoyens ont dit oui à #JaStimmenInProzent pour cent.  </t>
+  </si>
+  <si>
     <t>In nessun’altra parte della Svizzera l'iniziativa popolare “Per la designazione dei giudici federali mediante sorteggio” è stata approvata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat der Justizinitiative mit dem zweithöchsten Ja-Anteil in der ganzen Schweiz zugestimmt: #JaStimmenInProzent Prozent befürworteten die Vorlage.</t>
   </si>
   <si>
+    <t xml:space="preserve">#Gemeinde_f se classe au deuxième rang des plus fortes approbations de Suisse pour l'initiative "Désignation des juges fédéraux par tirage au sort". Ses citoyens disent oui à #JaStimmenInProzent pour cent.  </t>
+  </si>
+  <si>
     <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli all'iniziativa sulla giustizia. I suoi cittadini hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat die Justizinitiative mit dem dritthöchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent stimmten für das Volksbegehren.</t>
   </si>
   <si>
+    <t xml:space="preserve">#Gemeinde_f prend le troisième rang des plus fortes approbations de Suisse pour l'initiative "Désignation des juges fédéraux par tirage au sort". Ses citoyens disent oui à #JaStimmenInProzent pour cent.    </t>
+  </si>
+  <si>
     <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli all'iniziativa sulla giustizia. I suoi cittadini hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen die Justizinitiative ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
+    <t xml:space="preserve">#Gemeinde_f est la commune de Suisse à avoir le plus fortement rejeté l'initiative "Désignation des juges fédéraux par tirage au sort". Ses citoyens ont dit non à #NeinStimmenInProzent pour cent.  </t>
+  </si>
+  <si>
     <t>In nessun’altra parte della Svizzera l'iniziativa popolare “Per la designazione dei giudici federali mediante sorteggio " è stata respinta così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat die Justizinitiative mit dem zweithöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
   </si>
   <si>
+    <t xml:space="preserve">#Gemeinde_f se classe au deuxième rang des plus forts rejets de Suisse pour l'initiative "Désignation des juges fédéraux par tirage au sort". Ses citoyens disent non à #NeinStimmenInProzent pour cent.  </t>
+  </si>
+  <si>
     <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori all'iniziativa sulla giustizia. I suoi cittadini hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat die Justizinitiative mit dem dritthöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
   </si>
   <si>
+    <t xml:space="preserve">#Gemeinde_f se classe au troisième rang des plus forts rejets de Suisse pour l'initiative "Désignation des juges fédéraux par tirage au sort". Ses citoyens disent non à #NeinStimmenInProzent pour cent.  </t>
+  </si>
+  <si>
     <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori all'iniziativa sulla giustizia. I suoi cittadini hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
+    <t>Le plus fort pourcentage de oui du canton de #Kanton_f a été enregistré à #Gemeinde_f</t>
+  </si>
+  <si>
+    <t>Le plus important pourcentage de non du canton de #Kanton_f a été enregistré à #Gemeinde_f</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f a refusé l'initiative, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f a accepté l'initiative, contrairement à son canton.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat mit #JaStimmenInProzent Prozent Ja gesagt zum Covid-19-Gesetz.</t>
   </si>
   <si>
+    <t>La population de #Gemeinde_f approuve à #JaStimmenInProzent pour cent la loi Covid-19.</t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i la legge COVID-19 è stata accettata con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für das Covid-19-Gesetz ausgesprochen. </t>
   </si>
   <si>
+    <t>#Gemeinde_f dit oui à #JaStimmenInProzent pour cent à la modification de la loi Covid-19.</t>
+  </si>
+  <si>
     <t>Sì alla legge COVID-19 nel comune di #Gemeinde_i: i cittadini hanno approvato il testo con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben für das Covid-19-Gesetz gestimmt.</t>
   </si>
   <si>
+    <t>A #Gemeinde_f, les habitants disent oui à  #JaStimmenInProzent pour cent à la modification de la loi Covid-19.</t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i la legge COVID-19 è stata approvata con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Das Covid-19-Gesetz ist in #Gemeinde_d mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein angenommen worden. Das entspricht #JaStimmenInProzent Prozent der Stimmen.</t>
   </si>
   <si>
+    <t>La loi Covid-19 est approuvée à #Gemeinde_f par #JaStimmenInProzent pour cent des votants.</t>
+  </si>
+  <si>
     <t>I cittadini di #Gemeinde_i si sono espressi a favore della legge COVID-19. Il testo è stato approvato con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben Ja gesagt zum Covid-19-Gesetz.</t>
   </si>
   <si>
+    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la modification de la loi Covid-19.</t>
+  </si>
+  <si>
     <t>Con il #JaStimmenInProzent percento di "sì", i cittadini del comune di #Gemeinde_i hanno accolto la legge COVID-19.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat dem Covid-19-Gesetz zugestimmt und zwar mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein. Das entspricht einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent.</t>
   </si>
   <si>
+    <t>La loi Covid-19 passe la rampe avec #JaStimmenInProzent pour cent de oui à #Gemeinde_f.</t>
+  </si>
+  <si>
     <t>Da #Gemeinde_i è arrivato un "sì" alle urne per la legge COVID-19. I cittadini hanno accolto il testo con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Ja zum Covid-19-Gesetz: #Gemeinde_d hat den Bundesbeschluss mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
   </si>
   <si>
+    <t>Les habitants de #Gemeinde_f soutiennent à #JaStimmenInProzent pour cent la modification de la loi Covid-19.</t>
+  </si>
+  <si>
     <t>A #Gemeinde_i i cittadini hanno accolto, con il #JaStimmenInProzent percento dei voti, la legge COVID-19.</t>
   </si>
   <si>
     <t>#Gemeinde_d ist für das Covid-19-Gesetz: Mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein hat die Stimmbevölkerung den Bundesbeschluss agenommen.</t>
   </si>
   <si>
+    <t>La modification de la loi Covid-19 est validée à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i la legge COVID-19 è stata accettata con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut.</t>
   </si>
   <si>
     <t>Ja zum Covid-19-Gesetz in #Gemeinde_d: Mit #JaStimmenAbsolut Ja-Stimmen zu #NeinStimmenAbsolut Nein-Stimmen ist der Bundesbeschluss angenommen worden.</t>
   </si>
   <si>
+    <t>Les électeurs de la petite commune de #Gemeinde_f ont accordé leur confiance à la loi Covid-19. Ils ont dit oui au texte par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
+  </si>
+  <si>
     <t>Con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut, i cittadini di #Gemeinde_i hanno approvato la legge COVID-19.</t>
   </si>
   <si>
     <t xml:space="preserve">Die Gemeinde #Gemeinde_d ist gegen das Covid-19-Gesetz: Sie hat den Bundesbeschluss mit #NeinStimmenInProzent Prozent Nein verworfen. </t>
   </si>
   <si>
+    <t xml:space="preserve">La loi Covid-19 est refusée à #NeinStimmenInProzent pour cent à #Gemeinde_f. </t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i la legge COVID-19 è stata bocciata con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben das Covid-19-Gesetz abgelehnt.</t>
   </si>
   <si>
+    <t>Les habitants de #Gemeinde_f s'opposent à la modification de la loi Covid-19 par #NeinStimmenInProzent pour cent des voix.</t>
+  </si>
+  <si>
     <t>No alla legge COVID-19 nel comune di #Gemeinde_i: i cittadini hanno bocciato il testo con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#NeinStimmenInProzent Prozent Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben Nein gesagt zum Covid-19-Gesetz.</t>
   </si>
   <si>
+    <t>A #Gemeinde_f, les citoyens rejettent à #NeinStimmenInProzent pour cent la loi Covid-19.</t>
+  </si>
+  <si>
     <t>I cittadini di #Gemeinde_i si sono espressi contro la legge COVID-19. Il testo è stato respinto con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmbürgerinnen und Stimmbürger von #Gemeinde_d das Covid-19-Gesetz abgelehnt. Das entspricht #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
+    <t>La population de #Gemeinde_f rejette à #NeinStimmenInProzent pour cent des voix la loi Covid-19.</t>
+  </si>
+  <si>
     <t>Con il #NeinStimmenInProzent percento di "no", i cittadini del comune di #Gemeinde_i hanno respinto la legge COVID-19.</t>
   </si>
   <si>
     <t>Das Covid-19-Gesetz ist in #Gemeinde_d mit #NeinStimmenInProzent Prozent abgelehnt worden.</t>
   </si>
   <si>
+    <t>La loi Covid-19 n'a pas convaincu à #Gemeinde_f. Les citoyens de la commune ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>Da #Gemeinde_i è arrivato un "no" alle urne per la legge COVID-19. I cittadini hanno bocciato il testo con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Nein zum Covid-19-Gesetz: #Gemeinde_d hat den Bundesbeschluss mit #NeinStimmenInProzent Prozent Nein-Stimmen verworfen.</t>
   </si>
   <si>
+    <t>La modification de la loi Covid-19 n'a pas trouvé grâce aux yeux des citoyens de #Gemeinde_f. Ils ont refusé le texte à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i la legge COVID-19 è stata respinta con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
@@ -704,66 +842,99 @@
     <t>#Gemeinde_d will nichts wissen vom Covid-19-Gesetz: Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen hat die Gemeinde die Vorlage verworfen.</t>
   </si>
   <si>
+    <t>Les habitants de la petite commune de #Gemeinde_f ont refusé la révision de la loi Covid-19. Ils ont dit non à cet objet par #NeinStimmenAbsolut voix contre #JaStimmenAbsolut.</t>
+  </si>
+  <si>
     <t>Nel comune di #Gemeinde_i la legge COVID-19 è stata bocciata con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut.</t>
   </si>
   <si>
     <t>Nein zum Covid-19-Gesetz in #Gemeinde_d. Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten die Vorlage verworfen.</t>
   </si>
   <si>
+    <t>La loi Covid-19 ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejetée par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
+  </si>
+  <si>
     <t>Con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut, i cittadini di #Gemeinde_i hanno respinto la legge COVID-19.</t>
   </si>
   <si>
     <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben bei Abstimmung über das Covid-19-Gesetz ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
   </si>
   <si>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la loi Covid-19 et #JaStimmenAbsolut à la refuser.</t>
+  </si>
+  <si>
     <t>Pareggio perfetto a #Gemeinde_i! Sono stati #JaStimmenAbsolut a votare a favore della legge COVID-19, lo stesso identico numero dei contrari.</t>
   </si>
   <si>
     <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAbsolut Abstimmenden sagen Ja zum Covid-19-Gesetz.</t>
   </si>
   <si>
+    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la loi Covid-19.</t>
+  </si>
+  <si>
     <t>Un risultato più chiaro è difficile da trovare: a #Gemeinde_i tutti e #JaStimmenAbsolut i votanti hanno accettato la legge COVID-19.</t>
   </si>
   <si>
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden Nein gesagt zum Covid-19-Gesetz.</t>
   </si>
   <si>
+    <t>Un non sec et sonnant à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la révision de la loi Covid-19.</t>
+  </si>
+  <si>
     <t>Una bocciatura più chiara è difficile da trovare: a #Gemeinde_i tutti e #NeinStimmenAbsolut i votanti hanno respinto la legge COVID-19.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat das Covid-19-Gesetz von allen Schweizer Gemeinden am deutlichsten angenommen und zwar mit #JaStimmenInProzent Prozent der Stimmen.</t>
   </si>
   <si>
+    <t>Nulle part ailleurs en Suisse, la loi Covid-19 est approuvée plus clairement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>In nessun’altra parte della Svizzera la legge COVID-19è stata approvata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat dem Covid-19-Gesetz mit dem schweizweit zweithöchsten Ja-Anteil zugestimmt, nämlich mit #JaStimmenInProzent Prozent Ja.</t>
   </si>
   <si>
+    <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de la loi Covid-19. Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli alla legge COVID-19. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat schweizweit den dritthöchsten Ja-Anteil bei der Abstimmung über das Covid-19-Gesetz: #JaStimmenInProzent Prozent haben der Vorlage zugestimmt.</t>
   </si>
   <si>
+    <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations de la loi Covid-19. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli alla legge COVID-19. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen das Covid-19-Gesetz ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
+    <t>Nulle part ailleurs en Suisse, la loi Covid-19 n'est rejetée plus fortement qu'à #Gemeinde_f: c'est non à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>In nessun’altra parte della Svizzera le legge COVID-19è stata bocciata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat #Gemeinde_d hat das Covid-19-Gesetz mit dem schweizweit zweithöchsten Nein-Anteil abgelehnt, nämlich mit #NeinStimmenInProzent Nein.</t>
   </si>
   <si>
+    <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de la loi Covid-19. Elle dit non à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori alla legge COVID-19. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat schweizweit den dritthöchsten Nein-Anteil bei der Abstimmung über das Covid-19-Gesetz: #NeinStimmenInProzent Prozent haben es verworfen.</t>
   </si>
   <si>
+    <t>#Gemeinde_f se classe au troisième rang des plus forts refus de la loi Covid-19. Le refus atteint #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori alla legge COVID-19. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
   </si>
   <si>
@@ -773,6 +944,9 @@
     <t>Damit hat in #Gemeinde_d die Akzeptanz des Covid-19-Gesetzes im Vergleich zur letzten Abstimmung vom 13. Juni noch einmal zugenommen. Damals betrug der Ja-Stimmen-Anteil #HistJaStimmenInProzent Prozent.</t>
   </si>
   <si>
+    <t>Le soutien aux mesures destinées à lutter contre la pandémie et ses conséquences a ainsi encore augmenté à #Gemeinde_f. Lors des votations du 13 juin, il était de #HistJaStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>A #Gemeinde_i l'accettazione delle norme anti-coronavirus è ulteriormente cresciuta nel corso del tempo. Il 13 giugno gli elettori di questo comune avevano detto sì - con il #HistJaStimmenInProzent percento dei voti – alla legge COVID-19.</t>
   </si>
   <si>
@@ -785,6 +959,9 @@
     <t>Damit hat in #Gemeinde_d die Zustimmung zum Covid-19-Gesetz im Vergleich zur letzten Abstimmung vom 13. Juni abgenommen. Damals betrug der Ja-Stimmen-Anteil noch #HistJaStimmenInProzent Prozent.</t>
   </si>
   <si>
+    <t>L'appui à ce texte a toutefois baissé par rapport au scrutin du 13 juin. #Gemeinde_f avait alors dit oui à #HistJaStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>A #Gemeinde_i l'accettazione delle norme anti-coronavirus è diminuita nel tempo. Il 13 giugno gli elettori di questo comune avevano detto sì - con il #HistJaStimmenInProzent percento dei voti – alla legge COVID-19.</t>
   </si>
   <si>
@@ -797,6 +974,9 @@
     <t>Damit ist in #Gemeinde_d die Unterstützung des Covid-19-Gesetzes im Vergleich zur letzten Abstimmung vom 13. Juni ungefähr gleich geblieben. Damals betrug der Ja-Stimmen-Anteil #HistJaStimmenInProzent Prozent.</t>
   </si>
   <si>
+    <t>Les avis restent ainsi stables face à cet objet à #Gemeinde_f. Le 13 juin dernier, la commune avait déjà voté oui à #HistJaStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>A #Gemeinde_i l'accettazione delle norme anti-coronavirus è rimasta grosso modo invariata nel tempo. Il 13 giugno gli elettori di questo comune avevano detto sì - con il #HistJaStimmenInProzent percento dei voti – alla legge COVID-19.</t>
   </si>
   <si>
@@ -809,6 +989,9 @@
     <t>Erstaunlicherweise ist damit der Ja-Anteil in #Gemeinde_d im Vergleich zur letzten Abstimmung über das Covid-19-Gesetz vom 13. Juni genau gleich geblieben.</t>
   </si>
   <si>
+    <t>Les citoyens de #Gemeinde_f n'ont pas changé d'avis sur cet objet depuis le scrutin du 13 juin. La part de oui reste inchangée.</t>
+  </si>
+  <si>
     <t>A #Gemeinde_i l'approccio nei confronti delle norme anti-coronavirus è rimasto invariato nel tempo. Il 13 giugno gli elettori di questo comune avevano detto sì - con il #HistJaStimmenInProzent percento dei voti, la stessa quota odierna – alla legge COVID-19.</t>
   </si>
   <si>
@@ -821,6 +1004,9 @@
     <t>Damit hat in #Gemeinde_d die Ablehnung im Vergleich zur Abstimmung über das Covid-19-Gesetz vom 13. Juni noch einmal zugenommen. Damals betrug der Nein-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
   </si>
   <si>
+    <t>Le refus de la loi s'est encore renforcé par rapport au vote du 13 juin dernier. La proportion de "non" à #Gemeinde_f était alors de #HistNeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>A #Gemeinde_i lo scetticismo nei confronti delle norme anti-coronavirus è aumentato nel tempo. Il 13 giugno gli elettori di questo comune avevano detto no - con il #HistNeinStimmenInProzent percento dei voti – alla legge COVID-19.</t>
   </si>
   <si>
@@ -833,6 +1019,9 @@
     <t>Damit ist in #Gemeinde_d die Sekpsis gegenüber dem Covid-19-Gesetz im Vergleich zur letzten Abstimmung vom 13. Juni gesunken. Damals betrug der Nein-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
   </si>
   <si>
+    <t>Le rejet de la loi est toutefois moins fort qu'il y a cinq mois. Le 13 juin, #Gemeinde_f avait dit non à #HistNeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>A #Gemeinde_i lo scetticismo nei confronti delle norme anti-coronavirus è diminuito nel tempo. Il 13 giugno gli elettori di questo comune avevano detto no - con il #HistNeinStimmenInProzent percento dei voti – alla legge COVID-19.</t>
   </si>
   <si>
@@ -845,6 +1034,9 @@
     <t>Damit ist in #Gemeinde_d die Oppostion zum Covid-19-Gesetz im Vergleich zur letzten Abstimmung vom 13. Juni ungefähr gleich geblieten. Damals betrug der Ja-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
   </si>
   <si>
+    <t xml:space="preserve">Le résultat a peu changé par rapport au scrutin du 13 juin. #Gemeinde_f avait alors dit non à #HistNeinStimmenInProzent pour cent à la loi Covid-19. </t>
+  </si>
+  <si>
     <t>A #Gemeinde_i l'approccio nei confronti delle norme anti-coronavirus è rimasto grosso modo invariato nel tempo. Il 13 giugno gli elettori di questo comune avevano detto no - con il #HistNeinStimmenInProzent percento dei voti – alla legge COVID-19.</t>
   </si>
   <si>
@@ -857,6 +1049,9 @@
     <t>Erstaunlicherweise ist damit der Nein-Stimmen-Anteil in #Gemeinde_d zum Covid-19-Gesetz im Vergleich zur letzten Abstimmung vom 13. Juni genau gleich geblieben.</t>
   </si>
   <si>
+    <t>Avec ce score, le résultat des urnes reste identique à celui du 13 juin à #Gemeinde_f.</t>
+  </si>
+  <si>
     <t>A #Gemeinde_i l'approccio nei confronti delle misure anti-coronavirus è rimasto invariato nel tempo. Il 13 giugno gli elettori di questo comune avevano detto no - con il #HistNeinStimmenInProzent percento dei voti, la stessa quota odierna – alla legge COVID-19.</t>
   </si>
   <si>
@@ -869,6 +1064,9 @@
     <t>Damit hat in #Gemeinde_d seit der Abstimmung vom 13. Juni ein Meinungsumschwung stattgefunden: Damals hatte noch eine Mehrheit von #HistNeinStimmenInProzent Prozent ein Nein in die Urne gelegt.</t>
   </si>
   <si>
+    <t>Avec ce résultat, #Gemeinde_f bascule dans le camp du oui. Elle avait pourtant rejeté la loi à #HistNeinStimmenInProzent le 13 juin dernier.</t>
+  </si>
+  <si>
     <t>#Gemeinde_i ha cambiato fazione: in giugno il comune aveva rifiutato la legge COVID-19, mentre ora la approva.</t>
   </si>
   <si>
@@ -881,6 +1079,9 @@
     <t>Damit hat in #Gemeinde_d die Einstellung zum Covid-19-Gesetz im Vergleich zur letzten Abstimmung vom 13. Juni geändert: Damals hatte noch eine Mehrheit von #HistJaStimmenInProzent Prozent ein Ja in die Urne gelegt.</t>
   </si>
   <si>
+    <t>En moins de six mois, la commune a ainsi changé de camp. #Gemeinde_f avait approuvé la loi Covid-19 à #HistNeinStimmenInProzent lors des votations du 13 juin.</t>
+  </si>
+  <si>
     <t>#Gemeinde_i ha cambiato fazione: in giugno il comune era a favore della legge COVID-19, mentre ora la boccia.</t>
   </si>
   <si>
@@ -893,6 +1094,9 @@
     <t xml:space="preserve">Wegen der Veränderung der Gemeindestruktur ist ein Vergleich mit der Abstimmung über das Covid-Gesetz im Juni in #Gemeinde_d nicht möglich. </t>
   </si>
   <si>
+    <t>Il n'est pas possible de comparer les résultats de cette votations à celle du 13 juin dernier en raison de changements dans la structure de la commune de #Gemeinde_f.</t>
+  </si>
+  <si>
     <t>Impossibile comparare il risultato odierno di #Gemeinde_i con quello di giugno. Questo a causa di fusioni fra varie realtà comunali.</t>
   </si>
   <si>
@@ -959,55 +1163,154 @@
     <t>Il a été combattu par voie référendaire par les syndicats avec le soutien de la gauche qui exigent toujours une CCT cadre dans le secteur.</t>
   </si>
   <si>
+    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenInProzent pour cent des voix le contournement routier de La Chaux-de-Fonds par la H18. L'objet prévoit un crédit de 186 millions de francs, dont 73,1 millions à charge du canton de Neuchâtel.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui le contournement routier de La Chaux-de-Fonds par la H18. Ce projet prévoit un crédit de 186 millions de francs, dont 73,1 millions à charge du canton de Neuchâtel.</t>
+  </si>
+  <si>
+    <t>C'est oui à #JaStimmenInProzent pour cent au contournement routier de La Chaux-de-Fonds par la H18 à #Gemeinde_f. Ce projet prévoit un crédit de 186 millions de francs, dont 73,1 millions à charge du canton de Neuchâtel.</t>
+  </si>
+  <si>
+    <t>Le contournement routier de La Chaux-de-Fonds par la H18 passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à ce projet, qui prévoit un crédit de 186 millions de francs, dont 73,1 millions à la charge du canton de Neuchâtel.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix le contournement routier de La Chaux-de-Fonds par la H18. L'objet prévoit un crédit de 186 millions de francs, dont 73,1 millions à charge du canton de Neuchâtel.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non le contournement routier de La Chaux-de-Fonds par la H18. Ce projet prévoit un crédit de 186 millions de francs, dont 73,1 millions à charge du canton de Neuchâtel.</t>
+  </si>
+  <si>
+    <t>C'est non à #NeinStimmenInProzent pour cent au contournement routier de La Chaux-de-Fonds par la H18 à #Gemeinde_f. Ce projet prévoit un crédit de 186 millions de francs, dont 73,1 millions à charge du canton de Neuchâtel.</t>
+  </si>
+  <si>
+    <t>Le contournement routier de La Chaux-de-Fonds par la H18 ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à ce projet, qui prévoit un crédit de 186 millions de francs, dont 73,1 millions à la charge du canton de Neuchâtel.</t>
+  </si>
+  <si>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter le contournement routier de La Chaux-de-Fonds par la H18 et #NeinStimmenAbsolut à le refuser. L'objet prévoit un crédit de 186 millions de francs, dont 73,1 millions à charge du canton de Neuchâtel.</t>
+  </si>
+  <si>
+    <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté le contournement routier de La Chaux-de-Fonds par la H18.</t>
+  </si>
+  <si>
+    <t>Le projet de contournement routier de La Chaux-de-Fonds par la H18 a été balayé à #Gemeinde_f. Les #NeinStimmenAbsolut votants de cette commune ont tous refusé de débloquer un crédit de 186 millions de francs, dont 73,1 millions à la charge du canton.</t>
+  </si>
+  <si>
+    <t>C'est à #Gemeinde_f que le crédit a été le plus fortement approuvé.</t>
+  </si>
+  <si>
+    <t>Le rejet le plus net du crédit a été enregistré à #Gemeinde_f.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f a approuvé le crédit, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f a rejeté le crédit, contrairement au canton.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f a accepté le crédit, contrairement au canton.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f a refusé le crédit, tout comme le canton.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat die Initiative "Für einen Kanton Wallis ohne Grossraubtiere" mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
+    <t>#Gemeinde_f a accepté par #JaStimmenInProzent pour cent l'initiative "pour un canton du Valais sans grands prédateurs".</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für die Initiative "Für einen Kanton Wallis ohne Grossraubtiere" ausgesprochen. </t>
   </si>
   <si>
+    <t>La commune de #Gemeinde_f dit oui à #JaStimmenInProzent à l'initiative "pour un canton du Valais sans grands prédateurs".</t>
+  </si>
+  <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben der Initiative "Für einen Kanton Wallis ohne Grossraubtiere" zugestimmt.</t>
   </si>
   <si>
+    <t>Les citoyens de #Gemeinde_f ont approuvé à #JaStimmenInProzent pour cent "pour un canton du Valais sans grands prédateurs".</t>
+  </si>
+  <si>
     <t>Die Initiative "Für einen Kanton Wallis ohne Grossraubtiere" ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten sie ab.</t>
   </si>
   <si>
+    <t>C'est oui à initiative "pour un canton du Valais sans grands prédateurs" à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat die Initiative "Für einen Kanton Wallis ohne Grossraubtiere" mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
+    <t>Les habitants de #Gemeinde_f ne veulent pas de l'initiative "pour un canton du Valais sans grands prédateurs". Ils ont rejeté le texte par #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
     <t>Nein zur Initiative "Für einen Kanton Wallis ohne Grossraubtiere" in #Gemeinde_d: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
+    <t xml:space="preserve">#Gemeinde_f rejette par #NeinStimmenInProzent pour cent des voix l'initiative "pour un canton du Valais sans grands prédateurs". </t>
+  </si>
+  <si>
     <t>Keine Mehrheit für die Initiative "Für einen Kanton Wallis ohne Grossraubtiere" in #Gemeinde_d. #NeinStimmenInProzent Prozent haben sie verworfen.</t>
   </si>
   <si>
+    <t>L'initiative "pour un canton du Valais sans grands prédateurs" ne passe pas la rampe à #Gemeinde_f. Les citoyens ont dit non par #NeinStimmenInProzent pour cent des voix à ce texte.</t>
+  </si>
+  <si>
     <t>Die Initiative "Für einen Kanton Wallis ohne Grossraubtiere" ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
   </si>
   <si>
+    <t>#Gemeinde_f refuse l'initiative "pour un canton du Valais sans grands prédateurs". Les citoyens de cette petite commune ont été  #NeinStimmenAbsolut à refuser le texte, contre #JaStimmenAbsolut à l'approuver.</t>
+  </si>
+  <si>
     <t>Unentschieden in #Gemeinde_d bei der Abstimmung über die Initiative "Für einen Kanton Wallis ohne Grossraubtiere": Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
   </si>
   <si>
+    <t>Match nul à #Gemeinde_f sur l'initiative "pour un canton du Valais sans grands prédateurs". Le texte a obtenu #JaStimmenAbsolut voix pour et autant contre.</t>
+  </si>
+  <si>
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden der Initiative "Für einen Kanton Wallis ohne Grossraubtiere" zugestimmt.</t>
   </si>
   <si>
+    <t xml:space="preserve">Le résultat n'aurait pas pu être plus clair à #Gemeinde_f: les #JaStimmenAbsolut citoyens qui se sont exprimés ce dimanche ont tous voté oui à l'initiative "pour un canton du Valais sans grands prédateurs". </t>
+  </si>
+  <si>
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die Initiative "Für einen Kanton Wallis ohne Grossraubtiere" abgelehnt.</t>
   </si>
   <si>
+    <t xml:space="preserve">Pas de suspense à #Gemeinde_f: les #NeinStimmenAbsolut qui ont pris par au vote ce dimanche ont tous glissé dans l'urne un non à l'initiative "pour un canton du Valais sans grands prédateurs". </t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton.</t>
   </si>
   <si>
+    <t>C'est dans cette commune que le oui a été le plus fort dans le canton.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton.</t>
   </si>
   <si>
+    <t>Nulle part ailleurs dans le canton, le refus de l'initiative a été plus fort qu'à #Gemeinde_f.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton Wallis, der die Vorlage auch angenommen hat.</t>
   </si>
   <si>
+    <t>#Gemeinde_f a voté comme le canton du Valais.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton Wallis, der die Vorlage angenommen hat.</t>
   </si>
   <si>
+    <t>#Gemeinde_f n'a pas suivi l'ensemble du canton, qui a approuvé l'initiative.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Avec ce rejet de l'initiative, les citoyens de #Gemeinde_f ont voté comme la majorité des Valaisans.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Änderung des Energiegesetzes für einen "wirksamen Klimaschutz im Gebäudebereich" mit #JaStimmenInProzent Prozent angenommen.</t>
@@ -6097,9 +6400,11 @@
       <c r="B2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -6110,11 +6415,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>144</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -6122,11 +6429,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5">
@@ -6134,11 +6443,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
@@ -6146,11 +6457,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
@@ -6158,11 +6471,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
@@ -6170,11 +6485,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
@@ -6182,11 +6499,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -6197,11 +6516,13 @@
         <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11">
@@ -6209,11 +6530,13 @@
         <v>36</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>168</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -6224,11 +6547,13 @@
         <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>171</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
@@ -6236,11 +6561,13 @@
         <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
@@ -6248,11 +6575,13 @@
         <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>177</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
@@ -6260,11 +6589,13 @@
         <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>180</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="D15" s="20" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
@@ -6272,11 +6603,13 @@
         <v>36</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -6285,11 +6618,13 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
@@ -6297,11 +6632,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>189</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>32</v>
@@ -6312,11 +6649,13 @@
         <v>59</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>192</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
@@ -6324,11 +6663,13 @@
         <v>66</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>70</v>
@@ -6339,11 +6680,13 @@
         <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>198</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>75</v>
@@ -6354,11 +6697,13 @@
         <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>80</v>
@@ -6369,11 +6714,13 @@
         <v>81</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>204</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" s="6" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>85</v>
@@ -6384,11 +6731,13 @@
         <v>86</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>90</v>
@@ -6399,11 +6748,13 @@
         <v>91</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>95</v>
@@ -6415,11 +6766,13 @@
         <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>100</v>
@@ -6431,11 +6784,13 @@
         <v>101</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>216</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>105</v>
@@ -6447,11 +6802,13 @@
         <v>106</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>219</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>110</v>
@@ -6465,7 +6822,9 @@
       <c r="B29" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="D29" s="6" t="s">
         <v>114</v>
       </c>
@@ -6481,7 +6840,9 @@
       <c r="B30" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="D30" s="6" t="s">
         <v>119</v>
       </c>
@@ -6497,7 +6858,9 @@
       <c r="B31" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="D31" s="6" t="s">
         <v>124</v>
       </c>
@@ -6513,7 +6876,9 @@
       <c r="B32" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="21" t="s">
+        <v>224</v>
+      </c>
       <c r="D32" s="6" t="s">
         <v>129</v>
       </c>
@@ -6529,7 +6894,9 @@
       <c r="B33" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="21" t="s">
+        <v>225</v>
+      </c>
       <c r="D33" s="6" t="s">
         <v>134</v>
       </c>
@@ -6545,7 +6912,9 @@
       <c r="B34" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="D34" s="6" t="s">
         <v>139</v>
       </c>
@@ -9482,11 +9851,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -9497,11 +9868,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
@@ -9509,11 +9882,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>232</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -9521,11 +9896,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>235</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
@@ -9533,11 +9910,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>238</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
@@ -9545,11 +9924,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>241</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
@@ -9557,11 +9938,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>244</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9">
@@ -9569,11 +9952,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>247</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -9584,11 +9969,13 @@
         <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>250</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11">
@@ -9596,11 +9983,13 @@
         <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>253</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -9611,11 +10000,13 @@
         <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>256</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13">
@@ -9623,11 +10014,13 @@
         <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>259</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14">
@@ -9635,11 +10028,13 @@
         <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>262</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15">
@@ -9647,11 +10042,13 @@
         <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>265</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16">
@@ -9659,11 +10056,13 @@
         <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
@@ -9671,11 +10070,13 @@
         <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>271</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18">
@@ -9683,11 +10084,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>273</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>32</v>
@@ -9698,11 +10101,13 @@
         <v>59</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>276</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20">
@@ -9710,11 +10115,13 @@
         <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>70</v>
@@ -9725,11 +10132,13 @@
         <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>282</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>75</v>
@@ -9740,11 +10149,13 @@
         <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>285</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>80</v>
@@ -9755,11 +10166,13 @@
         <v>81</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>288</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="D23" s="6" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>85</v>
@@ -9770,11 +10183,13 @@
         <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>291</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>90</v>
@@ -9785,11 +10200,13 @@
         <v>91</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>294</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>95</v>
@@ -9800,11 +10217,13 @@
         <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>297</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>100</v>
@@ -9815,11 +10234,13 @@
         <v>101</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>105</v>
@@ -9830,11 +10251,13 @@
         <v>106</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>303</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>110</v>
@@ -9842,167 +10265,189 @@
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>307</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="25" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>312</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="25" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>317</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="25" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>322</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>327</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>328</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="25" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>332</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>333</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="25" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>337</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="D35" s="6" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="25" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C36" s="5"/>
+        <v>342</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="D36" s="6" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="25" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C37" s="5"/>
+        <v>347</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="D37" s="6" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="25" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="5"/>
+        <v>352</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="D38" s="6" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" ht="54.0" customHeight="1">
       <c r="A39" s="25" t="s">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C39" s="5"/>
+        <v>357</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="D39" s="6" t="s">
-        <v>291</v>
+        <v>359</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>292</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40">
@@ -13881,7 +14326,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -13893,7 +14338,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="26" t="s">
-        <v>294</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
@@ -13902,7 +14347,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>295</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5">
@@ -13911,7 +14356,7 @@
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="5" t="s">
-        <v>296</v>
+        <v>364</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
@@ -13924,7 +14369,7 @@
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
-        <v>297</v>
+        <v>365</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
@@ -13937,7 +14382,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8">
@@ -13946,7 +14391,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9">
@@ -13955,7 +14400,7 @@
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
-        <v>300</v>
+        <v>368</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
@@ -13968,7 +14413,7 @@
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="5" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
@@ -13981,7 +14426,7 @@
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="5" t="s">
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
@@ -13994,7 +14439,7 @@
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="5" t="s">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
@@ -14007,7 +14452,7 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
@@ -14020,7 +14465,7 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
@@ -14033,7 +14478,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="15" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
@@ -14046,7 +14491,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="15" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
@@ -14059,7 +14504,7 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="15" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
@@ -14072,7 +14517,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="15" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
@@ -14081,17 +14526,17 @@
     </row>
     <row r="20">
       <c r="C20" s="30" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="7" t="s">
-        <v>311</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="30" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -14143,7 +14588,9 @@
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
@@ -14153,21 +14600,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="27"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>384</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -14178,7 +14631,9 @@
         <v>36</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
         <v>40</v>
@@ -14189,21 +14644,27 @@
         <v>36</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="27"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -14214,7 +14675,9 @@
         <v>66</v>
       </c>
       <c r="B10" s="29"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -14225,7 +14688,9 @@
         <v>71</v>
       </c>
       <c r="B11" s="30"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
         <v>75</v>
@@ -14236,7 +14701,9 @@
         <v>76</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -14247,7 +14714,9 @@
         <v>111</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
         <v>115</v>
@@ -14258,7 +14727,9 @@
         <v>116</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>393</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
         <v>120</v>
@@ -14269,7 +14740,9 @@
         <v>121</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="21" t="s">
+        <v>394</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
         <v>125</v>
@@ -14280,7 +14753,9 @@
         <v>126</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="21" t="s">
+        <v>395</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
         <v>130</v>
@@ -14291,7 +14766,9 @@
         <v>131</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="21" t="s">
+        <v>396</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
         <v>135</v>
@@ -14302,7 +14779,9 @@
         <v>136</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="21" t="s">
+        <v>397</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
         <v>140</v>
@@ -14357,9 +14836,11 @@
         <v>5</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>398</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
@@ -14369,27 +14850,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>402</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>404</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -14400,9 +14887,11 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>406</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
         <v>40</v>
@@ -14413,27 +14902,33 @@
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>408</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>410</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>412</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>413</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -14444,9 +14939,11 @@
         <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>414</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -14457,9 +14954,11 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>416</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
         <v>75</v>
@@ -14470,9 +14969,11 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>418</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -14483,9 +14984,11 @@
         <v>111</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>420</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>421</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
         <v>115</v>
@@ -14496,9 +14999,11 @@
         <v>116</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>422</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
         <v>120</v>
@@ -14509,9 +15014,11 @@
         <v>121</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>424</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>425</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
         <v>125</v>
@@ -14522,9 +15029,11 @@
         <v>126</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>426</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>427</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
         <v>130</v>
@@ -14535,9 +15044,11 @@
         <v>131</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="17"/>
+        <v>428</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>376</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
         <v>135</v>
@@ -14548,9 +15059,11 @@
         <v>136</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="C18" s="17"/>
+        <v>429</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
         <v>140</v>
@@ -17488,7 +18001,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>330</v>
+        <v>431</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -17500,7 +18013,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>331</v>
+        <v>432</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -17509,7 +18022,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>332</v>
+        <v>433</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -17518,7 +18031,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>333</v>
+        <v>434</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
@@ -17531,7 +18044,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>334</v>
+        <v>435</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7"/>
@@ -17544,7 +18057,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>335</v>
+        <v>436</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -17553,7 +18066,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>336</v>
+        <v>437</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -17562,7 +18075,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>337</v>
+        <v>438</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
@@ -17575,7 +18088,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>338</v>
+        <v>439</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
@@ -17588,7 +18101,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>339</v>
+        <v>440</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
@@ -17601,7 +18114,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>340</v>
+        <v>441</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
@@ -17614,7 +18127,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
@@ -17627,7 +18140,7 @@
         <v>116</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>325</v>
+        <v>422</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
@@ -17640,7 +18153,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>341</v>
+        <v>442</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="7"/>
@@ -17653,7 +18166,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>342</v>
+        <v>443</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="7"/>
@@ -17666,7 +18179,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>328</v>
+        <v>428</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="7"/>
@@ -17679,7 +18192,7 @@
         <v>136</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="7"/>
@@ -20595,47 +21108,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
-        <v>343</v>
+        <v>444</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>344</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>345</v>
+        <v>446</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>346</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>347</v>
+        <v>448</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>348</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>349</v>
+        <v>450</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>350</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>351</v>
+        <v>452</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>352</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>353</v>
+        <v>454</v>
       </c>
       <c r="B6" s="34">
         <v>60.4</v>
@@ -20643,7 +21156,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>354</v>
+        <v>455</v>
       </c>
       <c r="B7" s="34">
         <v>39.6</v>
@@ -20651,23 +21164,23 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>355</v>
+        <v>456</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>356</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>357</v>
+        <v>458</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>358</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>359</v>
+        <v>460</v>
       </c>
       <c r="B10" s="34">
         <v>60.4</v>
@@ -20675,7 +21188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>360</v>
+        <v>461</v>
       </c>
       <c r="B11" s="34">
         <v>39.6</v>
@@ -20683,26 +21196,26 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>361</v>
+        <v>462</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>356</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>362</v>
+        <v>463</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>358</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>363</v>
+        <v>464</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>364</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15">
@@ -20710,13 +21223,13 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>365</v>
+        <v>466</v>
       </c>
       <c r="B16" s="35"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="B17" s="34">
         <v>60.4</v>
@@ -20724,7 +21237,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>367</v>
+        <v>468</v>
       </c>
       <c r="B18" s="34">
         <v>39.6</v>
@@ -20732,23 +21245,23 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>368</v>
+        <v>469</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>356</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>369</v>
+        <v>470</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>358</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>370</v>
+        <v>471</v>
       </c>
       <c r="B21" s="34">
         <v>60.4</v>
@@ -20756,7 +21269,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>371</v>
+        <v>472</v>
       </c>
       <c r="B22" s="34">
         <v>39.6</v>
@@ -20764,23 +21277,23 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>372</v>
+        <v>473</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>356</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>373</v>
+        <v>474</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>358</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>374</v>
+        <v>475</v>
       </c>
       <c r="B25" s="34">
         <v>60.4</v>
@@ -20788,7 +21301,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>375</v>
+        <v>476</v>
       </c>
       <c r="B26" s="34">
         <v>39.6</v>
